--- a/biology/Zoologie/Auguste_Chevrolat/Auguste_Chevrolat.xlsx
+++ b/biology/Zoologie/Auguste_Chevrolat/Auguste_Chevrolat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis Alexandre Auguste Chevrolat est un entomologiste français né le 29 mars 1799 à Paris et mort le 16 décembre 1884 dans cette même ville.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fonctionnaire à l’octroi de Paris, cet entomologiste amateur étudie principalement les coléoptères et les oiseaux. Il étudie dans sa jeunesse auprès de Latreille et Dejean. Il publie près de 250 notes et articles et est l’auteur de l'identification de plus de deux mille espèces. Il écrit des articles sur les phytophages dans le catalogue des insectes de Dejean et le dictionnaire d'Alcide d'Orbigny. Il prend sa retraite en 1856, se consacrant entièrement à sa passion.
 Il participe à la fondation de la Société entomologique de France en 1832. Il travaille principalement sur les coléoptères et en particulier sur les carabiques, les curculionidés, les longicornes, les buprestes. Il étudie aussi les coléoptères de Cuba. Sa collection, contenant notamment une partie de la collection de Guillaume-Antoine Olivier (1756-1814), a été dispersée après sa mort. Une partie se trouve aujourd'hui au musée d'histoire naturelle de Londres.
@@ -543,7 +557,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(Curculionidae) Eupholus chevrolati Guérin-Méneville</t>
         </is>
@@ -573,7 +589,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(1833) Description de Buprestis analis, Magasin de Zoologie 1833, Insectes, No 60, 1 planche couleur.
 (1833) Coléoptères du Mexique, Fascicule 1, [25 pp.], oct. 1833. Strasbourg.
